--- a/biology/Zoologie/Aderidae/Aderidae.xlsx
+++ b/biology/Zoologie/Aderidae/Aderidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aderidae sont une famille d'insectes coléoptères.
 À l'état de larve, ces insectes sont saproxylophages ou mangent des feuilles mortes. Les adultes vivent sur les arbres ou buissons et consomment du nectar et du pollen, contribuant à la pollinisation. Leur forme peut rappeler celles de certaines fourmis.
@@ -514,7 +526,9 @@
           <t>Caractéristiques morphologiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les yeux sont protubérants et granuleux.
 Corps relativement velu, antennes velues.
@@ -547,7 +561,9 @@
           <t>Habitat, mode de vie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des adultes se trouvent sur le dessous des feuilles d'arbres ou arbustes. Leurs larves sont presque toutes saproxylophages, c'est-à-dire qu'elles se nourrissent de bois en décomposition, jouant un rôle important dans le recyclage du bois mort. Certaines larves d'espèces de cette famille vivent dans les feuilles en décomposition ou dans les nids d'autres insectes.
 </t>
@@ -578,9 +594,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (14 octobre 2018)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (14 octobre 2018) :
 genre Aderus Westwood, 1829
 genre Ariotus Casey, 1895
 genre Axylophilus Casey, 1895
@@ -593,7 +611,7 @@
 genre Vanonus Casey, 1895
 genre Xylophilus Latreille, 1825
 genre Zonantes Casey, 1895
-Liste des genres selon GBIF       (15 mai 2021)[3] :
+Liste des genres selon GBIF       (15 mai 2021) :
 Aderus Stephens, 1829
 Aderus Westwood, 1829
 Agacinosia Collado &amp; Alonso-Zarazaga, 1996
